--- a/井温分布曲线.xlsx
+++ b/井温分布曲线.xlsx
@@ -128,7 +128,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$1</c:f>
+              <c:f>Sheet1!$B$1</c:f>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -143,18 +143,18 @@
             <c:showVal val="false"/>
             <c:showCatName val="false"/>
             <c:showSerName val="true"/>
-            <c:showPercent val="true"/>
+            <c:showPercent val="false"/>
             <c:showBubbleSize val="true"/>
             <c:showLeaderLines val="false"/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$10</c:f>
+              <c:f>Sheet1!$B$2:$B$10</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$10</c:f>
+              <c:f/>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -163,7 +163,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$1</c:f>
+              <c:f>Sheet1!$D$1</c:f>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -178,18 +178,18 @@
             <c:showVal val="false"/>
             <c:showCatName val="false"/>
             <c:showSerName val="true"/>
-            <c:showPercent val="true"/>
+            <c:showPercent val="false"/>
             <c:showBubbleSize val="true"/>
             <c:showLeaderLines val="false"/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$2:$B$10</c:f>
+              <c:f>Sheet1!$B$1</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$10</c:f>
+              <c:f>Sheet1!$D$2:$D$10</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -198,7 +198,7 @@
           <c:showVal val="false"/>
           <c:showCatName val="false"/>
           <c:showSerName val="true"/>
-          <c:showPercent val="true"/>
+          <c:showPercent val="false"/>
           <c:showBubbleSize val="true"/>
           <c:showLeaderLines val="false"/>
         </c:dLbls>
@@ -256,11 +256,10 @@
       <c:valAx>
         <c:axId val="753999904"/>
         <c:scaling>
-          <c:orientation val="maxMin"/>
-          <c:max val="1520"/>
+          <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="false"/>
-        <c:axPos val="r"/>
+        <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="true"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -643,6 +642,9 @@
       <c r="C2">
         <v>0</v>
       </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3">
@@ -654,6 +656,9 @@
       <c r="C3">
         <v>300</v>
       </c>
+      <c r="D3">
+        <v>300</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4">
@@ -665,6 +670,9 @@
       <c r="C4">
         <v>600</v>
       </c>
+      <c r="D4">
+        <v>600</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5">
@@ -676,6 +684,9 @@
       <c r="C5">
         <v>900</v>
       </c>
+      <c r="D5">
+        <v>900</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6">
@@ -687,6 +698,9 @@
       <c r="C6">
         <v>1000</v>
       </c>
+      <c r="D6">
+        <v>1000</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7">
@@ -698,6 +712,9 @@
       <c r="C7">
         <v>1200</v>
       </c>
+      <c r="D7">
+        <v>1200</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8">
@@ -709,6 +726,9 @@
       <c r="C8">
         <v>1300</v>
       </c>
+      <c r="D8">
+        <v>1300</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9">
@@ -720,6 +740,9 @@
       <c r="C9">
         <v>1400</v>
       </c>
+      <c r="D9">
+        <v>1400</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10">
@@ -729,6 +752,9 @@
         <v>81.2</v>
       </c>
       <c r="C10">
+        <v>1520</v>
+      </c>
+      <c r="D10">
         <v>1520</v>
       </c>
     </row>
